--- a/Code/Results/Cases/Case_4_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.658750284622499</v>
+        <v>1.699955922942479</v>
       </c>
       <c r="C2">
-        <v>0.7631143247928662</v>
+        <v>0.2285688705859457</v>
       </c>
       <c r="D2">
-        <v>0.203190900206252</v>
+        <v>0.0781804742505301</v>
       </c>
       <c r="E2">
-        <v>0.02126976335807562</v>
+        <v>0.05614855279578546</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.442676680494515</v>
+        <v>1.29221744435344</v>
       </c>
       <c r="H2">
-        <v>0.8252600072611358</v>
+        <v>1.164334417649656</v>
       </c>
       <c r="I2">
-        <v>0.7158129321774922</v>
+        <v>1.024765759105783</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3670529653279289</v>
+        <v>0.2596427119920719</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6342803433498689</v>
+        <v>1.348250203937496</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.168562213184771</v>
+        <v>1.572168292037361</v>
       </c>
       <c r="C3">
-        <v>0.6613375958226015</v>
+        <v>0.1991593398948339</v>
       </c>
       <c r="D3">
-        <v>0.175403882605238</v>
+        <v>0.07094743015032634</v>
       </c>
       <c r="E3">
-        <v>0.02142182496069989</v>
+        <v>0.05646580474595986</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.292808276827657</v>
+        <v>1.265474754307547</v>
       </c>
       <c r="H3">
-        <v>0.7641667778754311</v>
+        <v>1.158506721433213</v>
       </c>
       <c r="I3">
-        <v>0.6700797885116572</v>
+        <v>1.0222892936915</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3216627422001181</v>
+        <v>0.2492817122659261</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6846577608193094</v>
+        <v>1.367548845873078</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.871005142683885</v>
+        <v>1.494441646628331</v>
       </c>
       <c r="C4">
-        <v>0.5994649549269297</v>
+        <v>0.1810649040776866</v>
       </c>
       <c r="D4">
-        <v>0.158622594956995</v>
+        <v>0.06654695993825044</v>
       </c>
       <c r="E4">
-        <v>0.02154021745994417</v>
+        <v>0.05667718952738898</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.204413440546233</v>
+        <v>1.250061537481571</v>
       </c>
       <c r="H4">
-        <v>0.7286194060031619</v>
+        <v>1.155649144840595</v>
       </c>
       <c r="I4">
-        <v>0.6439484441653107</v>
+        <v>1.021452894491482</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2943125836768132</v>
+        <v>0.2430745017239957</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7169854557730639</v>
+        <v>1.379976849622762</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.750484478290844</v>
+        <v>1.46295195584122</v>
       </c>
       <c r="C5">
-        <v>0.5743778572093845</v>
+        <v>0.1736816593498247</v>
       </c>
       <c r="D5">
-        <v>0.1518450443686987</v>
+        <v>0.06476381703531331</v>
       </c>
       <c r="E5">
-        <v>0.02159456329396203</v>
+        <v>0.05676750780481399</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.169214468047528</v>
+        <v>1.244032242158639</v>
       </c>
       <c r="H5">
-        <v>0.7145860151481713</v>
+        <v>1.154665336481571</v>
       </c>
       <c r="I5">
-        <v>0.633749967976307</v>
+        <v>1.021283465296307</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2832831005947725</v>
+        <v>0.2405837446554102</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7304959695310993</v>
+        <v>1.385186595943261</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.730513145367524</v>
+        <v>1.45773425212235</v>
       </c>
       <c r="C6">
-        <v>0.5702189991908426</v>
+        <v>0.1724550864731214</v>
       </c>
       <c r="D6">
-        <v>0.1507230561496158</v>
+        <v>0.06446833261733786</v>
       </c>
       <c r="E6">
-        <v>0.02160395041365515</v>
+        <v>0.05678275754138618</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.1634169216738</v>
+        <v>1.243046242257165</v>
       </c>
       <c r="H6">
-        <v>0.7122819572054482</v>
+        <v>1.154512872749052</v>
       </c>
       <c r="I6">
-        <v>0.6320826061619513</v>
+        <v>1.021265666213587</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2814582555145506</v>
+        <v>0.2401724923401929</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7327593210669425</v>
+        <v>1.386060434907026</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.869376934405011</v>
+        <v>1.494016218924287</v>
       </c>
       <c r="C7">
-        <v>0.5991261460456485</v>
+        <v>0.1809653704376331</v>
       </c>
       <c r="D7">
-        <v>0.1585309556944594</v>
+        <v>0.06652287119564448</v>
       </c>
       <c r="E7">
-        <v>0.02154092593352885</v>
+        <v>0.05667839067031544</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.203935516552662</v>
+        <v>1.24997920706727</v>
       </c>
       <c r="H7">
-        <v>0.7284283672671847</v>
+        <v>1.155635146021751</v>
       </c>
       <c r="I7">
-        <v>0.6438091313008556</v>
+        <v>1.02144991631441</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.294163385482662</v>
+        <v>0.2430407538285664</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7171663179609808</v>
+        <v>1.38004652237737</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.48894576121171</v>
+        <v>1.6557418135136</v>
       </c>
       <c r="C8">
-        <v>0.7278750208638201</v>
+        <v>0.2184358985144286</v>
       </c>
       <c r="D8">
-        <v>0.1935458777475532</v>
+        <v>0.07567799923475604</v>
       </c>
       <c r="E8">
-        <v>0.02131687939691584</v>
+        <v>0.05625450105786367</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.390193949527486</v>
+        <v>1.282786677944898</v>
       </c>
       <c r="H8">
-        <v>0.803761417925557</v>
+        <v>1.162175126916139</v>
       </c>
       <c r="I8">
-        <v>0.6996146679926625</v>
+        <v>1.023769493600263</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.351285329025302</v>
+        <v>0.2560381022171896</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6513518571738901</v>
+        <v>1.354784146659205</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.737243597985412</v>
+        <v>1.978757495564707</v>
       </c>
       <c r="C9">
-        <v>0.9867160721461801</v>
+        <v>0.2916421217224183</v>
       </c>
       <c r="D9">
-        <v>0.264902512809897</v>
+        <v>0.09396084055697429</v>
       </c>
       <c r="E9">
-        <v>0.02108558836378105</v>
+        <v>0.05555466253301411</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.788622069775158</v>
+        <v>1.35518338766434</v>
       </c>
       <c r="H9">
-        <v>0.9691315824921958</v>
+        <v>1.180744741693871</v>
       </c>
       <c r="I9">
-        <v>0.826487215238231</v>
+        <v>1.033776831652752</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4681567849831367</v>
+        <v>0.2827585433657163</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5340663235654777</v>
+        <v>1.309845746343682</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.684317088352941</v>
+        <v>2.219734940859951</v>
       </c>
       <c r="C10">
-        <v>1.183043135145624</v>
+        <v>0.3452917259901938</v>
       </c>
       <c r="D10">
-        <v>0.3196990432582254</v>
+        <v>0.1076054907163382</v>
       </c>
       <c r="E10">
-        <v>0.02105705874774166</v>
+        <v>0.05512029256560869</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.108413806974028</v>
+        <v>1.413395134398428</v>
       </c>
       <c r="H10">
-        <v>1.104574939755707</v>
+        <v>1.197930495944689</v>
       </c>
       <c r="I10">
-        <v>0.9333848022988604</v>
+        <v>1.044501369716642</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5581176293901677</v>
+        <v>0.303153585871641</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4561552579914494</v>
+        <v>1.279647673503747</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.124123325524181</v>
+        <v>2.330174917434476</v>
       </c>
       <c r="C11">
-        <v>1.27427871747426</v>
+        <v>0.3696761919278515</v>
       </c>
       <c r="D11">
-        <v>0.3453276575240665</v>
+        <v>0.1138614121524029</v>
       </c>
       <c r="E11">
-        <v>0.02107845208312931</v>
+        <v>0.05493995108754746</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.261517408528277</v>
+        <v>1.440991441880499</v>
       </c>
       <c r="H11">
-        <v>1.170033908425751</v>
+        <v>1.20652707251233</v>
       </c>
       <c r="I11">
-        <v>0.9857643184959528</v>
+        <v>1.050122310712382</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6002205964188931</v>
+        <v>0.3126004037800669</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.422780334158821</v>
+        <v>1.266524643963094</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.292190118171504</v>
+        <v>2.372114303767319</v>
       </c>
       <c r="C12">
-        <v>1.309159989656337</v>
+        <v>0.3789074104468568</v>
       </c>
       <c r="D12">
-        <v>0.3551510010439927</v>
+        <v>0.1162375757570544</v>
       </c>
       <c r="E12">
-        <v>0.02109184327337221</v>
+        <v>0.05487413691990106</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.320757253305999</v>
+        <v>1.451603655706833</v>
       </c>
       <c r="H12">
-        <v>1.195452163000596</v>
+        <v>1.209895034249712</v>
       </c>
       <c r="I12">
-        <v>1.006212698243559</v>
+        <v>1.05235832147433</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6163607544491754</v>
+        <v>0.3162021508728259</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4104659880580428</v>
+        <v>1.261643913523844</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.255922266457333</v>
+        <v>2.363076642580438</v>
       </c>
       <c r="C13">
-        <v>1.301631941991786</v>
+        <v>0.3769194142326455</v>
       </c>
       <c r="D13">
-        <v>0.3530298033759465</v>
+        <v>0.1157255045867487</v>
       </c>
       <c r="E13">
-        <v>0.02108871799987622</v>
+        <v>0.05488820106723136</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.307939863863226</v>
+        <v>1.449310889529158</v>
       </c>
       <c r="H13">
-        <v>1.189948513831865</v>
+        <v>1.209164663961644</v>
       </c>
       <c r="I13">
-        <v>1.001780216363997</v>
+        <v>1.05187196434737</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6128754685405227</v>
+        <v>0.3154253608807949</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4131032306556115</v>
+        <v>1.262691116585962</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.137918360538947</v>
+        <v>2.333622924731685</v>
       </c>
       <c r="C14">
-        <v>1.27714141678041</v>
+        <v>0.3704357007831049</v>
       </c>
       <c r="D14">
-        <v>0.3461333503198603</v>
+        <v>0.1140567557609842</v>
       </c>
       <c r="E14">
-        <v>0.0210794456308312</v>
+        <v>0.05493448689212688</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.266364773214207</v>
+        <v>1.441861256842088</v>
       </c>
       <c r="H14">
-        <v>1.17211197187649</v>
+        <v>1.206801895828988</v>
       </c>
       <c r="I14">
-        <v>0.9874338692653595</v>
+        <v>1.050304110281743</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6015443483016298</v>
+        <v>0.3128962310182857</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4217605667467463</v>
+        <v>1.266121324095148</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.065843067207481</v>
+        <v>2.315597076424069</v>
       </c>
       <c r="C15">
-        <v>1.262185311617145</v>
+        <v>0.3664639051600034</v>
       </c>
       <c r="D15">
-        <v>0.3419250408909988</v>
+        <v>0.1130355386980284</v>
       </c>
       <c r="E15">
-        <v>0.02107446594853446</v>
+        <v>0.05496316078536534</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.241068562244493</v>
+        <v>1.437319301050138</v>
       </c>
       <c r="H15">
-        <v>1.161271130197093</v>
+        <v>1.205369318635604</v>
       </c>
       <c r="I15">
-        <v>0.9787285505230301</v>
+        <v>1.049357773914366</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5946301831890963</v>
+        <v>0.3113502532106907</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.4271064813502132</v>
+        <v>1.268233984025983</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.655774460150724</v>
+        <v>2.212533935118586</v>
       </c>
       <c r="C16">
-        <v>1.177124001208654</v>
+        <v>0.3436977526739042</v>
       </c>
       <c r="D16">
-        <v>0.318039713863854</v>
+        <v>0.1071976483432309</v>
       </c>
       <c r="E16">
-        <v>0.02105638108787833</v>
+        <v>0.05513242518000627</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.098575351935494</v>
+        <v>1.411614240987689</v>
       </c>
       <c r="H16">
-        <v>1.100380820433998</v>
+        <v>1.197384414053118</v>
       </c>
       <c r="I16">
-        <v>0.9300432822800246</v>
+        <v>1.044149028057632</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5553920755995421</v>
+        <v>0.3025396268133136</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4583801986524012</v>
+        <v>1.28051768398047</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.406665594100787</v>
+        <v>2.149517937839335</v>
       </c>
       <c r="C17">
-        <v>1.12547207988186</v>
+        <v>0.329726337266635</v>
       </c>
       <c r="D17">
-        <v>0.3035782755558074</v>
+        <v>0.103628922752705</v>
       </c>
       <c r="E17">
-        <v>0.02105432497695414</v>
+        <v>0.05524068003578098</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.01322601686303</v>
+        <v>1.396131916909383</v>
       </c>
       <c r="H17">
-        <v>1.064063585454761</v>
+        <v>1.192685834712819</v>
       </c>
       <c r="I17">
-        <v>0.9011870969501246</v>
+        <v>1.041144275595968</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5316411056790287</v>
+        <v>0.297177978273524</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4781131078341332</v>
+        <v>1.288210901369451</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.264214425077284</v>
+        <v>2.113349776200323</v>
       </c>
       <c r="C18">
-        <v>1.095940780201005</v>
+        <v>0.3216883486981601</v>
       </c>
       <c r="D18">
-        <v>0.2953252943870126</v>
+        <v>0.1015808799736249</v>
       </c>
       <c r="E18">
-        <v>0.02105635458082133</v>
+        <v>0.05530456978467058</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.964842338136947</v>
+        <v>1.387331787257665</v>
       </c>
       <c r="H18">
-        <v>1.043531630308678</v>
+        <v>1.190056590818102</v>
       </c>
       <c r="I18">
-        <v>0.8849379443455092</v>
+        <v>1.03948584496468</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5180893793338015</v>
+        <v>0.2941099994625205</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4896557497664968</v>
+        <v>1.292693628880924</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.216118820953398</v>
+        <v>2.101117063047013</v>
       </c>
       <c r="C19">
-        <v>1.085970901522813</v>
+        <v>0.3189664691678331</v>
       </c>
       <c r="D19">
-        <v>0.2925416167558836</v>
+        <v>0.100888232325957</v>
       </c>
       <c r="E19">
-        <v>0.02105758352120901</v>
+        <v>0.05532648087744096</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.948577156466769</v>
+        <v>1.384370179081458</v>
       </c>
       <c r="H19">
-        <v>1.036638929067465</v>
+        <v>1.189178935902987</v>
       </c>
       <c r="I19">
-        <v>0.8794939477229065</v>
+        <v>1.038936298638419</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5135189794923605</v>
+        <v>0.2930739611533113</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.493596239471163</v>
+        <v>1.294221318693417</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.433096208794041</v>
+        <v>2.15621812822684</v>
       </c>
       <c r="C20">
-        <v>1.130951763079509</v>
+        <v>0.3312138225898025</v>
       </c>
       <c r="D20">
-        <v>0.3051108880571434</v>
+        <v>0.1040083431597481</v>
       </c>
       <c r="E20">
-        <v>0.02105420900949007</v>
+        <v>0.05522898803012843</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.022237290468127</v>
+        <v>1.397769168511701</v>
       </c>
       <c r="H20">
-        <v>1.067892163171365</v>
+        <v>1.193178420275359</v>
       </c>
       <c r="I20">
-        <v>0.9042223463720234</v>
+        <v>1.041456904836878</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5341579487912185</v>
+        <v>0.2977470883669753</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4759923689675123</v>
+        <v>1.287385961465529</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.172535688019991</v>
+        <v>2.342270984417553</v>
       </c>
       <c r="C21">
-        <v>1.284325380263226</v>
+        <v>0.3723401935083643</v>
       </c>
       <c r="D21">
-        <v>0.3481556439234197</v>
+        <v>0.1145467116224808</v>
       </c>
       <c r="E21">
-        <v>0.02108202261153203</v>
+        <v>0.05492082442420188</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.27854068730926</v>
+        <v>1.444044981927703</v>
       </c>
       <c r="H21">
-        <v>1.177333223235934</v>
+        <v>1.207492836274525</v>
       </c>
       <c r="I21">
-        <v>0.9916304567013867</v>
+        <v>1.05076170403602</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6048670029313854</v>
+        <v>0.3136384332921267</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4192086739887504</v>
+        <v>1.26511137952137</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.664800417883157</v>
+        <v>2.464556293505325</v>
       </c>
       <c r="C22">
-        <v>1.38653218186812</v>
+        <v>0.399203387528928</v>
       </c>
       <c r="D22">
-        <v>0.3769874028537004</v>
+        <v>0.1214760771485288</v>
       </c>
       <c r="E22">
-        <v>0.02113122612139584</v>
+        <v>0.05473385907525863</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.453503089778991</v>
+        <v>1.475234485994577</v>
       </c>
       <c r="H22">
-        <v>1.252576758678231</v>
+        <v>1.217504906066125</v>
       </c>
       <c r="I22">
-        <v>1.052373257378775</v>
+        <v>1.057469767709435</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6522408865010334</v>
+        <v>0.3241668801018278</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3840007430708336</v>
+        <v>1.251070692661607</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.401162190966602</v>
+        <v>2.399227099043344</v>
       </c>
       <c r="C23">
-        <v>1.331782123848143</v>
+        <v>0.3848672679652623</v>
       </c>
       <c r="D23">
-        <v>0.361528989744059</v>
+        <v>0.1177738575609624</v>
       </c>
       <c r="E23">
-        <v>0.02110200077172397</v>
+        <v>0.05483232631264467</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.359380005547791</v>
+        <v>1.458500978553133</v>
       </c>
       <c r="H23">
-        <v>1.212049518180265</v>
+        <v>1.21210096421612</v>
       </c>
       <c r="I23">
-        <v>1.01959585881616</v>
+        <v>1.053831944959867</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6268404473677691</v>
+        <v>0.3185345613842543</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4026079793161461</v>
+        <v>1.258517044300673</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.421144562668019</v>
+        <v>2.153188783512348</v>
       </c>
       <c r="C24">
-        <v>1.128473891337563</v>
+        <v>0.3305413480636901</v>
       </c>
       <c r="D24">
-        <v>0.3044178049498356</v>
+        <v>0.1038367957913096</v>
       </c>
       <c r="E24">
-        <v>0.02105425146040663</v>
+        <v>0.05523426883828009</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.018161172969485</v>
+        <v>1.397028653008419</v>
       </c>
       <c r="H24">
-        <v>1.066160187132539</v>
+        <v>1.192955498012964</v>
       </c>
       <c r="I24">
-        <v>0.9028490545257597</v>
+        <v>1.041315350151827</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5330197651330906</v>
+        <v>0.2974897485271697</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4769505404845571</v>
+        <v>1.287758730561808</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.39504531932721</v>
+        <v>1.890736575784786</v>
       </c>
       <c r="C25">
-        <v>0.9157915141622652</v>
+        <v>0.2718639136744798</v>
       </c>
       <c r="D25">
-        <v>0.2452397079773903</v>
+        <v>0.08897839490062154</v>
       </c>
       <c r="E25">
-        <v>0.02112446833015724</v>
+        <v>0.05572995144762682</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.676622781559871</v>
+        <v>1.33472408446579</v>
       </c>
       <c r="H25">
-        <v>0.9221970725062079</v>
+        <v>1.175101999150172</v>
       </c>
       <c r="I25">
-        <v>0.790002252530762</v>
+        <v>1.03048063298133</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4359100297751723</v>
+        <v>0.2753967533701456</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5644301094961968</v>
+        <v>1.321508858949683</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_111/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_111/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.699955922942479</v>
+        <v>3.658750284622442</v>
       </c>
       <c r="C2">
-        <v>0.2285688705859457</v>
+        <v>0.7631143247927241</v>
       </c>
       <c r="D2">
-        <v>0.0781804742505301</v>
+        <v>0.203190900206252</v>
       </c>
       <c r="E2">
-        <v>0.05614855279578546</v>
+        <v>0.02126976335807296</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.29221744435344</v>
+        <v>1.442676680494486</v>
       </c>
       <c r="H2">
-        <v>1.164334417649656</v>
+        <v>0.8252600072611358</v>
       </c>
       <c r="I2">
-        <v>1.024765759105783</v>
+        <v>0.7158129321774922</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2596427119920719</v>
+        <v>0.3670529653278436</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.348250203937496</v>
+        <v>0.6342803433499062</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.572168292037361</v>
+        <v>3.168562213184714</v>
       </c>
       <c r="C3">
-        <v>0.1991593398948339</v>
+        <v>0.6613375958225163</v>
       </c>
       <c r="D3">
-        <v>0.07094743015032634</v>
+        <v>0.1754038826054085</v>
       </c>
       <c r="E3">
-        <v>0.05646580474595986</v>
+        <v>0.02142182496065992</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.265474754307547</v>
+        <v>1.292808276827685</v>
       </c>
       <c r="H3">
-        <v>1.158506721433213</v>
+        <v>0.7641667778754027</v>
       </c>
       <c r="I3">
-        <v>1.0222892936915</v>
+        <v>0.6700797885116501</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2492817122659261</v>
+        <v>0.3216627422000471</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.367548845873078</v>
+        <v>0.6846577608192845</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.494441646628331</v>
+        <v>2.871005142683771</v>
       </c>
       <c r="C4">
-        <v>0.1810649040776866</v>
+        <v>0.5994649549270719</v>
       </c>
       <c r="D4">
-        <v>0.06654695993825044</v>
+        <v>0.1586225949567535</v>
       </c>
       <c r="E4">
-        <v>0.05667718952738898</v>
+        <v>0.0215402174599415</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.250061537481571</v>
+        <v>1.204413440546261</v>
       </c>
       <c r="H4">
-        <v>1.155649144840595</v>
+        <v>0.7286194060031619</v>
       </c>
       <c r="I4">
-        <v>1.021452894491482</v>
+        <v>0.6439484441653036</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2430745017239957</v>
+        <v>0.2943125836766427</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.379976849622762</v>
+        <v>0.7169854557730586</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.46295195584122</v>
+        <v>2.750484478290673</v>
       </c>
       <c r="C5">
-        <v>0.1736816593498247</v>
+        <v>0.5743778572093845</v>
       </c>
       <c r="D5">
-        <v>0.06476381703531331</v>
+        <v>0.1518450443686561</v>
       </c>
       <c r="E5">
-        <v>0.05676750780481399</v>
+        <v>0.0215945632939647</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.244032242158639</v>
+        <v>1.169214468047571</v>
       </c>
       <c r="H5">
-        <v>1.154665336481571</v>
+        <v>0.7145860151481713</v>
       </c>
       <c r="I5">
-        <v>1.021283465296307</v>
+        <v>0.633749967976307</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2405837446554102</v>
+        <v>0.2832831005947298</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.385186595943261</v>
+        <v>0.7304959695311659</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.45773425212235</v>
+        <v>2.730513145367695</v>
       </c>
       <c r="C6">
-        <v>0.1724550864731214</v>
+        <v>0.5702189991908995</v>
       </c>
       <c r="D6">
-        <v>0.06446833261733786</v>
+        <v>0.1507230561495874</v>
       </c>
       <c r="E6">
-        <v>0.05678275754138618</v>
+        <v>0.02160395041365692</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.243046242257165</v>
+        <v>1.163416921673814</v>
       </c>
       <c r="H6">
-        <v>1.154512872749052</v>
+        <v>0.7122819572055619</v>
       </c>
       <c r="I6">
-        <v>1.021265666213587</v>
+        <v>0.6320826061619158</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2401724923401929</v>
+        <v>0.2814582555146075</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.386060434907026</v>
+        <v>0.7327593210668804</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.494016218924287</v>
+        <v>2.869376934405068</v>
       </c>
       <c r="C7">
-        <v>0.1809653704376331</v>
+        <v>0.5991261460456769</v>
       </c>
       <c r="D7">
-        <v>0.06652287119564448</v>
+        <v>0.1585309556946441</v>
       </c>
       <c r="E7">
-        <v>0.05667839067031544</v>
+        <v>0.02154092593351731</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.24997920706727</v>
+        <v>1.203935516552718</v>
       </c>
       <c r="H7">
-        <v>1.155635146021751</v>
+        <v>0.7284283672671847</v>
       </c>
       <c r="I7">
-        <v>1.02144991631441</v>
+        <v>0.6438091313008627</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2430407538285664</v>
+        <v>0.2941633854827188</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.38004652237737</v>
+        <v>0.7171663179609959</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.6557418135136</v>
+        <v>3.488945761211653</v>
       </c>
       <c r="C8">
-        <v>0.2184358985144286</v>
+        <v>0.7278750208636779</v>
       </c>
       <c r="D8">
-        <v>0.07567799923475604</v>
+        <v>0.1935458777477379</v>
       </c>
       <c r="E8">
-        <v>0.05625450105786367</v>
+        <v>0.0213168793969114</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.282786677944898</v>
+        <v>1.390193949527486</v>
       </c>
       <c r="H8">
-        <v>1.162175126916139</v>
+        <v>0.8037614179256423</v>
       </c>
       <c r="I8">
-        <v>1.023769493600263</v>
+        <v>0.6996146679926625</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2560381022171896</v>
+        <v>0.3512853290253304</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.354784146659205</v>
+        <v>0.651351857173867</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.978757495564707</v>
+        <v>4.737243597985355</v>
       </c>
       <c r="C9">
-        <v>0.2916421217224183</v>
+        <v>0.9867160721461232</v>
       </c>
       <c r="D9">
-        <v>0.09396084055697429</v>
+        <v>0.2649025128100106</v>
       </c>
       <c r="E9">
-        <v>0.05555466253301411</v>
+        <v>0.02108558836379526</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.35518338766434</v>
+        <v>1.78862206977513</v>
       </c>
       <c r="H9">
-        <v>1.180744741693871</v>
+        <v>0.9691315824921958</v>
       </c>
       <c r="I9">
-        <v>1.033776831652752</v>
+        <v>0.8264872152382381</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2827585433657163</v>
+        <v>0.4681567849831367</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.309845746343682</v>
+        <v>0.5340663235654777</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.219734940859951</v>
+        <v>5.684317088353055</v>
       </c>
       <c r="C10">
-        <v>0.3452917259901938</v>
+        <v>1.183043135145397</v>
       </c>
       <c r="D10">
-        <v>0.1076054907163382</v>
+        <v>0.3196990432581117</v>
       </c>
       <c r="E10">
-        <v>0.05512029256560869</v>
+        <v>0.02105705874775499</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.413395134398428</v>
+        <v>2.108413806974056</v>
       </c>
       <c r="H10">
-        <v>1.197930495944689</v>
+        <v>1.104574939755707</v>
       </c>
       <c r="I10">
-        <v>1.044501369716642</v>
+        <v>0.9333848022988604</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.303153585871641</v>
+        <v>0.5581176293901393</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.279647673503747</v>
+        <v>0.4561552579915151</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.330174917434476</v>
+        <v>6.124123325524408</v>
       </c>
       <c r="C11">
-        <v>0.3696761919278515</v>
+        <v>1.27427871747426</v>
       </c>
       <c r="D11">
-        <v>0.1138614121524029</v>
+        <v>0.3453276575242796</v>
       </c>
       <c r="E11">
-        <v>0.05493995108754746</v>
+        <v>0.02107845208319414</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.440991441880499</v>
+        <v>2.261517408528249</v>
       </c>
       <c r="H11">
-        <v>1.20652707251233</v>
+        <v>1.170033908425836</v>
       </c>
       <c r="I11">
-        <v>1.050122310712382</v>
+        <v>0.9857643184959528</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3126004037800669</v>
+        <v>0.6002205964188789</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.266524643963094</v>
+        <v>0.4227803341588636</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.372114303767319</v>
+        <v>6.292190118171789</v>
       </c>
       <c r="C12">
-        <v>0.3789074104468568</v>
+        <v>1.309159989655882</v>
       </c>
       <c r="D12">
-        <v>0.1162375757570544</v>
+        <v>0.355151001043879</v>
       </c>
       <c r="E12">
-        <v>0.05487413691990106</v>
+        <v>0.02109184327338465</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.451603655706833</v>
+        <v>2.320757253306084</v>
       </c>
       <c r="H12">
-        <v>1.209895034249712</v>
+        <v>1.195452163000738</v>
       </c>
       <c r="I12">
-        <v>1.05235832147433</v>
+        <v>1.006212698243559</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3162021508728259</v>
+        <v>0.6163607544492464</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.261643913523844</v>
+        <v>0.4104659880579753</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.363076642580438</v>
+        <v>6.255922266457276</v>
       </c>
       <c r="C13">
-        <v>0.3769194142326455</v>
+        <v>1.301631941991786</v>
       </c>
       <c r="D13">
-        <v>0.1157255045867487</v>
+        <v>0.353029803375918</v>
       </c>
       <c r="E13">
-        <v>0.05488820106723136</v>
+        <v>0.02108871799980694</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.449310889529158</v>
+        <v>2.307939863863112</v>
       </c>
       <c r="H13">
-        <v>1.209164663961644</v>
+        <v>1.189948513831865</v>
       </c>
       <c r="I13">
-        <v>1.05187196434737</v>
+        <v>1.001780216364011</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3154253608807949</v>
+        <v>0.6128754685405795</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.262691116585962</v>
+        <v>0.4131032306556506</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.333622924731685</v>
+        <v>6.137918360538947</v>
       </c>
       <c r="C14">
-        <v>0.3704357007831049</v>
+        <v>1.277141416780466</v>
       </c>
       <c r="D14">
-        <v>0.1140567557609842</v>
+        <v>0.3461333503197466</v>
       </c>
       <c r="E14">
-        <v>0.05493448689212688</v>
+        <v>0.02107944563078856</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.441861256842088</v>
+        <v>2.26636477321415</v>
       </c>
       <c r="H14">
-        <v>1.206801895828988</v>
+        <v>1.172111971876376</v>
       </c>
       <c r="I14">
-        <v>1.050304110281743</v>
+        <v>0.9874338692653595</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3128962310182857</v>
+        <v>0.6015443483016014</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.266121324095148</v>
+        <v>0.4217605667467375</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.315597076424069</v>
+        <v>6.065843067207538</v>
       </c>
       <c r="C15">
-        <v>0.3664639051600034</v>
+        <v>1.262185311617316</v>
       </c>
       <c r="D15">
-        <v>0.1130355386980284</v>
+        <v>0.3419250408911267</v>
       </c>
       <c r="E15">
-        <v>0.05496316078536534</v>
+        <v>0.02107446594853268</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.437319301050138</v>
+        <v>2.241068562244436</v>
       </c>
       <c r="H15">
-        <v>1.205369318635604</v>
+        <v>1.161271130197093</v>
       </c>
       <c r="I15">
-        <v>1.049357773914366</v>
+        <v>0.9787285505230301</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3113502532106907</v>
+        <v>0.5946301831891105</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.268233984025983</v>
+        <v>0.4271064813502008</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.212533935118586</v>
+        <v>5.655774460150894</v>
       </c>
       <c r="C16">
-        <v>0.3436977526739042</v>
+        <v>1.177124001208767</v>
       </c>
       <c r="D16">
-        <v>0.1071976483432309</v>
+        <v>0.3180397138638256</v>
       </c>
       <c r="E16">
-        <v>0.05513242518000627</v>
+        <v>0.02105638108792718</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.411614240987689</v>
+        <v>2.098575351935636</v>
       </c>
       <c r="H16">
-        <v>1.197384414053118</v>
+        <v>1.100380820433884</v>
       </c>
       <c r="I16">
-        <v>1.044149028057632</v>
+        <v>0.9300432822800389</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3025396268133136</v>
+        <v>0.555392075599471</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.28051768398047</v>
+        <v>0.4583801986523852</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.149517937839335</v>
+        <v>5.40666559410073</v>
       </c>
       <c r="C17">
-        <v>0.329726337266635</v>
+        <v>1.125472079881888</v>
       </c>
       <c r="D17">
-        <v>0.103628922752705</v>
+        <v>0.3035782755556937</v>
       </c>
       <c r="E17">
-        <v>0.05524068003578098</v>
+        <v>0.02105432497695592</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.396131916909383</v>
+        <v>2.013226016862973</v>
       </c>
       <c r="H17">
-        <v>1.192685834712819</v>
+        <v>1.06406358545479</v>
       </c>
       <c r="I17">
-        <v>1.041144275595968</v>
+        <v>0.9011870969501246</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.297177978273524</v>
+        <v>0.5316411056789292</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.288210901369451</v>
+        <v>0.4781131078341794</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.113349776200323</v>
+        <v>5.264214425077398</v>
       </c>
       <c r="C18">
-        <v>0.3216883486981601</v>
+        <v>1.095940780201005</v>
       </c>
       <c r="D18">
-        <v>0.1015808799736249</v>
+        <v>0.2953252943868847</v>
       </c>
       <c r="E18">
-        <v>0.05530456978467058</v>
+        <v>0.02105635458084443</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.387331787257665</v>
+        <v>1.964842338137004</v>
       </c>
       <c r="H18">
-        <v>1.190056590818102</v>
+        <v>1.043531630308649</v>
       </c>
       <c r="I18">
-        <v>1.03948584496468</v>
+        <v>0.8849379443455092</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2941099994625205</v>
+        <v>0.5180893793337731</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.292693628880924</v>
+        <v>0.4896557497665288</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.101117063047013</v>
+        <v>5.216118820953568</v>
       </c>
       <c r="C19">
-        <v>0.3189664691678331</v>
+        <v>1.085970901522956</v>
       </c>
       <c r="D19">
-        <v>0.100888232325957</v>
+        <v>0.2925416167559547</v>
       </c>
       <c r="E19">
-        <v>0.05532648087744096</v>
+        <v>0.02105758352121612</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.384370179081458</v>
+        <v>1.94857715646674</v>
       </c>
       <c r="H19">
-        <v>1.189178935902987</v>
+        <v>1.036638929067493</v>
       </c>
       <c r="I19">
-        <v>1.038936298638419</v>
+        <v>0.8794939477229278</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2930739611533113</v>
+        <v>0.5135189794923747</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.294221318693417</v>
+        <v>0.4935962394711506</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.15621812822684</v>
+        <v>5.433096208794154</v>
       </c>
       <c r="C20">
-        <v>0.3312138225898025</v>
+        <v>1.13095176307948</v>
       </c>
       <c r="D20">
-        <v>0.1040083431597481</v>
+        <v>0.3051108880570439</v>
       </c>
       <c r="E20">
-        <v>0.05522898803012843</v>
+        <v>0.02105420900944832</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.397769168511701</v>
+        <v>2.022237290468127</v>
       </c>
       <c r="H20">
-        <v>1.193178420275359</v>
+        <v>1.067892163171365</v>
       </c>
       <c r="I20">
-        <v>1.041456904836878</v>
+        <v>0.9042223463720376</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2977470883669753</v>
+        <v>0.5341579487911474</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.287385961465529</v>
+        <v>0.4759923689675762</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.342270984417553</v>
+        <v>6.172535688020048</v>
       </c>
       <c r="C21">
-        <v>0.3723401935083643</v>
+        <v>1.284325380263169</v>
       </c>
       <c r="D21">
-        <v>0.1145467116224808</v>
+        <v>0.3481556439234197</v>
       </c>
       <c r="E21">
-        <v>0.05492082442420188</v>
+        <v>0.02108202261148673</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.444044981927703</v>
+        <v>2.278540687309174</v>
       </c>
       <c r="H21">
-        <v>1.207492836274525</v>
+        <v>1.177333223236047</v>
       </c>
       <c r="I21">
-        <v>1.05076170403602</v>
+        <v>0.9916304567014009</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3136384332921267</v>
+        <v>0.6048670029313143</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.26511137952137</v>
+        <v>0.4192086739887415</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.464556293505325</v>
+        <v>6.664800417882986</v>
       </c>
       <c r="C22">
-        <v>0.399203387528928</v>
+        <v>1.386532181868233</v>
       </c>
       <c r="D22">
-        <v>0.1214760771485288</v>
+        <v>0.3769874028539135</v>
       </c>
       <c r="E22">
-        <v>0.05473385907525863</v>
+        <v>0.02113122612136475</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.475234485994577</v>
+        <v>2.453503089779076</v>
       </c>
       <c r="H22">
-        <v>1.217504906066125</v>
+        <v>1.252576758678117</v>
       </c>
       <c r="I22">
-        <v>1.057469767709435</v>
+        <v>1.052373257378775</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3241668801018278</v>
+        <v>0.6522408865011329</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.251070692661607</v>
+        <v>0.3840007430708692</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.399227099043344</v>
+        <v>6.401162190966431</v>
       </c>
       <c r="C23">
-        <v>0.3848672679652623</v>
+        <v>1.331782123847802</v>
       </c>
       <c r="D23">
-        <v>0.1177738575609624</v>
+        <v>0.3615289897439595</v>
       </c>
       <c r="E23">
-        <v>0.05483232631264467</v>
+        <v>0.02110200077175683</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.458500978553133</v>
+        <v>2.35938000554782</v>
       </c>
       <c r="H23">
-        <v>1.21210096421612</v>
+        <v>1.212049518180152</v>
       </c>
       <c r="I23">
-        <v>1.053831944959867</v>
+        <v>1.019595858816146</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3185345613842543</v>
+        <v>0.626840447367826</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.258517044300673</v>
+        <v>0.4026079793161053</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.153188783512348</v>
+        <v>5.421144562667848</v>
       </c>
       <c r="C24">
-        <v>0.3305413480636901</v>
+        <v>1.128473891337535</v>
       </c>
       <c r="D24">
-        <v>0.1038367957913096</v>
+        <v>0.3044178049497219</v>
       </c>
       <c r="E24">
-        <v>0.05523426883828009</v>
+        <v>0.02105425146040396</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.397028653008419</v>
+        <v>2.018161172969542</v>
       </c>
       <c r="H24">
-        <v>1.192955498012964</v>
+        <v>1.066160187132425</v>
       </c>
       <c r="I24">
-        <v>1.041315350151827</v>
+        <v>0.9028490545257739</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2974897485271697</v>
+        <v>0.5330197651330053</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.287758730561808</v>
+        <v>0.4769505404845518</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.890736575784786</v>
+        <v>4.395045319327323</v>
       </c>
       <c r="C25">
-        <v>0.2718639136744798</v>
+        <v>0.9157915141622937</v>
       </c>
       <c r="D25">
-        <v>0.08897839490062154</v>
+        <v>0.2452397079774045</v>
       </c>
       <c r="E25">
-        <v>0.05572995144762682</v>
+        <v>0.02112446833014214</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.33472408446579</v>
+        <v>1.676622781559843</v>
       </c>
       <c r="H25">
-        <v>1.175101999150172</v>
+        <v>0.9221970725060942</v>
       </c>
       <c r="I25">
-        <v>1.03048063298133</v>
+        <v>0.790002252530762</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2753967533701456</v>
+        <v>0.4359100297752008</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.321508858949683</v>
+        <v>0.5644301094961364</v>
       </c>
       <c r="O25">
         <v>0</v>
